--- a/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
+++ b/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.06.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034CBA4-BAA6-4655-8E3A-1F0C128100E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB803C47-9B3B-4367-A820-C6FCA411ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,13 +651,14 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
+++ b/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.06.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB803C47-9B3B-4367-A820-C6FCA411ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349F7D8-E1B9-4EB2-A55D-72BB881E63B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,15 +651,15 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
+++ b/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.06.2025 Макс ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.06.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349F7D8-E1B9-4EB2-A55D-72BB881E63B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC465B45-C0E0-4BEC-BA1B-DBC8118F7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
   <si>
     <t>Артикул</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Термобирки Человек-Паук</t>
   </si>
   <si>
-    <t>Термобирки Щенячий патруль</t>
-  </si>
-  <si>
     <t>Термобирки Майнкрафт</t>
   </si>
   <si>
@@ -257,6 +254,18 @@
   </si>
   <si>
     <t>15.06.2025 Макс ВБ</t>
+  </si>
+  <si>
+    <t>к1</t>
+  </si>
+  <si>
+    <t>к2</t>
+  </si>
+  <si>
+    <t>к3</t>
+  </si>
+  <si>
+    <t>к4</t>
   </si>
 </sst>
 </file>
@@ -277,7 +286,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,25 +295,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor theme="9"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA07A"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFA07A"/>
       </patternFill>
     </fill>
@@ -336,16 +381,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,6 +737,9 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -697,6 +751,9 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -708,6 +765,9 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -719,6 +779,9 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -730,6 +793,9 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -741,6 +807,9 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -752,6 +821,9 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -763,6 +835,9 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -774,6 +849,9 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -785,6 +863,9 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -796,6 +877,9 @@
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -807,6 +891,9 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -818,6 +905,9 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -829,6 +919,9 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -840,8 +933,11 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -851,8 +947,11 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -862,8 +961,11 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -873,8 +975,11 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -884,8 +989,11 @@
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -895,8 +1003,11 @@
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -906,8 +1017,11 @@
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -917,8 +1031,11 @@
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -928,8 +1045,11 @@
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -939,8 +1059,11 @@
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -950,8 +1073,11 @@
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -961,8 +1087,11 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -972,8 +1101,11 @@
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -983,478 +1115,596 @@
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>24</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="7">
         <v>20</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="7">
         <v>20</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="C34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="7">
         <v>20</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="7">
         <v>20</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="7">
         <v>20</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="C37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="7">
         <v>16</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="7">
         <v>12</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="8">
         <v>12</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="8">
         <v>12</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="C41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="8">
         <v>8</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="C42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <v>8</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="C43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="8">
         <v>8</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="C44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="8">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="C45" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="8">
         <v>8</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="C46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="8">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="4">
-        <v>4</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="8">
+        <v>4</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="4">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="4">
-        <v>4</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="8">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="4">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="8">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="4">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="8">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="4">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="8">
+        <v>4</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B56" s="8">
+        <v>4</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="8">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="4">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B58" s="8">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B59" s="8">
+        <v>4</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="8">
         <v>100</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="D60" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="11">
         <v>12</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="D61" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="11">
         <v>10</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="D62" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="11">
         <v>10</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="D63" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="11">
         <v>10</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="D64" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="11">
         <v>6</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="D65" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="11">
         <v>6</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="D66" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="5">
-        <v>6</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="11">
+        <v>4</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="D67" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="5">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="11">
+        <v>4</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="D68" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="5">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="11">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="D69" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="5">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="B70" s="12">
+        <v>38</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="6">
-        <v>38</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="D70" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="6">
+      <c r="B71" s="12">
         <v>8</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>76</v>
+      <c r="C71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
+++ b/MainTop/15.06.2025 Макс ВБ/спрос_12-6-2025 макс месяц с 12-5-2025 по 12-6-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\15.06.2025 Макс ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC465B45-C0E0-4BEC-BA1B-DBC8118F7CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4447F-3D5A-47E3-AAF0-3737DE0A18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="83">
   <si>
     <t>Артикул</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>к4</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,11 +380,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -397,6 +409,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -699,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +728,7 @@
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,8 +741,11 @@
       <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,7 +759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -755,7 +773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -769,7 +787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -783,7 +801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -797,7 +815,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -811,7 +829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -825,7 +843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -839,7 +857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -853,7 +871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -867,7 +885,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -881,7 +899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -895,7 +913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -909,7 +927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -923,7 +941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
